--- a/ish reja frond end.xlsx
+++ b/ish reja frond end.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>N/r</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>HTMLda amaliyot yangi teglar (&lt;ol&gt;, &lt;ul&gt;, &lt;li&gt;, )</t>
+  </si>
+  <si>
+    <t>CSSga kirish</t>
   </si>
 </sst>
 </file>
@@ -181,41 +184,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,596 +524,598 @@
   <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62" style="11" customWidth="1"/>
+    <col min="2" max="2" width="62" style="7" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
     <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="54" x14ac:dyDescent="0.35">
-      <c r="A4" s="15">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" ht="54" x14ac:dyDescent="0.35">
-      <c r="A5" s="15">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="15">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="15">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="15">
+      <c r="A8" s="8">
         <v>5</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="15">
+      <c r="A9" s="8">
         <v>6</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="15">
+      <c r="A10" s="8">
         <v>7</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="15">
+      <c r="A11" s="8">
         <v>8</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="15">
+      <c r="A12" s="8">
         <v>9</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="15">
+      <c r="A13" s="8">
         <v>10</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="15">
+      <c r="A14" s="8">
         <v>11</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="15">
+      <c r="A15" s="8">
         <v>12</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="15">
+      <c r="A18" s="8">
         <v>13</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="15">
+      <c r="A19" s="8">
         <v>14</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="15">
+      <c r="A20" s="8">
         <v>15</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="15">
+      <c r="A21" s="8">
         <v>16</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="15">
+      <c r="A22" s="8">
         <v>17</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="15">
+      <c r="A23" s="8">
         <v>18</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="15">
+      <c r="A24" s="8">
         <v>19</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="15">
+      <c r="A25" s="8">
         <v>20</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="15">
+      <c r="A26" s="8">
         <v>21</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="15">
+      <c r="A27" s="8">
         <v>22</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="15">
+      <c r="A28" s="8">
         <v>23</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A29" s="15">
+      <c r="A29" s="8">
         <v>24</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A32" s="15">
+      <c r="A32" s="8">
         <v>25</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A33" s="15">
+      <c r="A33" s="8">
         <v>26</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A34" s="15">
+      <c r="A34" s="8">
         <v>27</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A35" s="15">
+      <c r="A35" s="8">
         <v>28</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A36" s="15">
+      <c r="A36" s="8">
         <v>29</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="15">
+      <c r="A37" s="8">
         <v>30</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A38" s="15">
+      <c r="A38" s="8">
         <v>31</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A39" s="15">
+      <c r="A39" s="8">
         <v>32</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="15">
+      <c r="A40" s="8">
         <v>33</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A41" s="15">
+      <c r="A41" s="8">
         <v>34</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A42" s="15">
+      <c r="A42" s="8">
         <v>35</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A43" s="15">
+      <c r="A43" s="8">
         <v>36</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="8"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
     </row>
     <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="8"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
     </row>
     <row r="46" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A46" s="15">
+      <c r="A46" s="8">
         <v>37</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A47" s="15">
+      <c r="A47" s="8">
         <v>38</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A48" s="15">
+      <c r="A48" s="8">
         <v>39</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
     </row>
     <row r="49" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A49" s="15">
+      <c r="A49" s="8">
         <v>40</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A50" s="15">
+      <c r="A50" s="8">
         <v>41</v>
       </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A51" s="15">
+      <c r="A51" s="8">
         <v>42</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A52" s="15">
+      <c r="A52" s="8">
         <v>43</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
     </row>
     <row r="53" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A53" s="15">
+      <c r="A53" s="8">
         <v>44</v>
       </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
     </row>
     <row r="54" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A54" s="15">
+      <c r="A54" s="8">
         <v>45</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
     </row>
     <row r="55" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A55" s="15">
+      <c r="A55" s="8">
         <v>46</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A56" s="15">
+      <c r="A56" s="8">
         <v>47</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A57" s="15">
+      <c r="A57" s="8">
         <v>48</v>
       </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="8"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="11"/>
     </row>
     <row r="59" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="8"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="11"/>
     </row>
     <row r="60" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A60" s="15">
+      <c r="A60" s="8">
         <v>49</v>
       </c>
-      <c r="B60" s="9"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
     </row>
     <row r="61" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A61" s="15">
+      <c r="A61" s="8">
         <v>50</v>
       </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
     </row>
     <row r="62" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A62" s="15">
+      <c r="A62" s="8">
         <v>51</v>
       </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A63" s="15">
+      <c r="A63" s="8">
         <v>52</v>
       </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
     </row>
     <row r="64" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A64" s="15">
+      <c r="A64" s="8">
         <v>53</v>
       </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
     </row>
     <row r="65" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A65" s="15">
+      <c r="A65" s="8">
         <v>54</v>
       </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
     </row>
     <row r="66" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A66" s="15">
+      <c r="A66" s="8">
         <v>55</v>
       </c>
-      <c r="B66" s="9"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
     </row>
     <row r="67" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A67" s="15">
+      <c r="A67" s="8">
         <v>56</v>
       </c>
-      <c r="B67" s="9"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A68" s="15">
+      <c r="A68" s="8">
         <v>57</v>
       </c>
-      <c r="B68" s="9"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A69" s="15">
+      <c r="A69" s="8">
         <v>58</v>
       </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
     </row>
     <row r="70" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A70" s="15">
+      <c r="A70" s="8">
         <v>59</v>
       </c>
-      <c r="B70" s="9"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
     </row>
     <row r="71" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A71" s="15">
+      <c r="A71" s="8">
         <v>60</v>
       </c>
-      <c r="B71" s="9"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
     </row>
     <row r="72" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
@@ -1122,17 +1127,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A30:D30"/>
     <mergeCell ref="A44:D44"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
